--- a/data/dataProfile4D.xlsx
+++ b/data/dataProfile4D.xlsx
@@ -21,67 +21,67 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="21">
   <x:si>
-    <x:t>[10 15 12 6]</x:t>
+    <x:t>[3 5 7 2]</x:t>
   </x:si>
   <x:si>
-    <x:t>[7 1 6 3]</x:t>
+    <x:t>[8 5 6 3]</x:t>
   </x:si>
   <x:si>
-    <x:t>[5 9 2 11]</x:t>
+    <x:t>[4 7 7 7]</x:t>
   </x:si>
   <x:si>
-    <x:t>[3 8 5 7]</x:t>
+    <x:t>[6 8 8 6]</x:t>
   </x:si>
   <x:si>
-    <x:t>[3 8 5 15]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[7 4 6 4]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[8 8 8 1]</x:t>
+    <x:t>[3 5 5 5]</x:t>
   </x:si>
   <x:si>
     <x:t>[5 5 5 5]</x:t>
   </x:si>
   <x:si>
-    <x:t>[6 6 5 5]</x:t>
+    <x:t>[2 6 8 7]</x:t>
   </x:si>
   <x:si>
-    <x:t>[6 5 10 2]</x:t>
+    <x:t>[1 2 11 14]</x:t>
   </x:si>
   <x:si>
-    <x:t>[7 7 11 3]</x:t>
+    <x:t>[4 1 1 1]</x:t>
   </x:si>
   <x:si>
-    <x:t>[5 2 3 3]</x:t>
+    <x:t>[10 11 9 14]</x:t>
   </x:si>
   <x:si>
-    <x:t>[11 5 1 9]</x:t>
+    <x:t>[14 12 15 8]</x:t>
   </x:si>
   <x:si>
-    <x:t>[6 2 9 4]</x:t>
+    <x:t>[3 10 16 13]</x:t>
   </x:si>
   <x:si>
-    <x:t>[16 7 7 16]</x:t>
+    <x:t>[4 6 13 9]</x:t>
   </x:si>
   <x:si>
-    <x:t>[5 4 3 5]</x:t>
+    <x:t>[14 6 2 4]</x:t>
   </x:si>
   <x:si>
-    <x:t>[12 12 8 2]</x:t>
+    <x:t>[2 8 1 15]</x:t>
   </x:si>
   <x:si>
-    <x:t>[2 14 9 1]</x:t>
+    <x:t>[4 1 4 14]</x:t>
   </x:si>
   <x:si>
-    <x:t>[4 13 4 14]</x:t>
+    <x:t>[3 3 14 12]</x:t>
   </x:si>
   <x:si>
-    <x:t>[3 6 13 10]</x:t>
+    <x:t>[14 4 1 8]</x:t>
   </x:si>
   <x:si>
-    <x:t>[9 8 11 7]</x:t>
+    <x:t>[8 14 1 5]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[13 5 12 6]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[4 6 5 2]</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -813,7 +813,7 @@
   <x:dimension ref="A1:O60"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
+      <x:selection activeCell="J4" activeCellId="0" sqref="J4:J4"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -826,43 +826,43 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C1" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D1" t="s">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1">
-        <x:v>2924700</x:v>
+        <x:v>2379401</x:v>
       </x:c>
       <x:c r="G1">
-        <x:v>122500</x:v>
+        <x:v>80001</x:v>
       </x:c>
       <x:c r="H1" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1">
-        <x:v>1</x:v>
+        <x:v>4.4721359549995796</x:v>
       </x:c>
       <x:c r="J1">
-        <x:v>4141600</x:v>
+        <x:v>2791001</x:v>
       </x:c>
       <x:c r="K1">
-        <x:v>105700</x:v>
+        <x:v>130701</x:v>
       </x:c>
       <x:c r="L1" t="s">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="M1">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N1">
-        <x:v>4141600</x:v>
+        <x:v>2791001</x:v>
       </x:c>
       <x:c r="O1">
-        <x:v>434799</x:v>
+        <x:v>909199</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:15">
@@ -873,43 +873,43 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D2" t="s">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E2">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F2">
-        <x:v>17900</x:v>
+        <x:v>11700</x:v>
       </x:c>
       <x:c r="G2">
-        <x:v>25500</x:v>
+        <x:v>16400</x:v>
       </x:c>
       <x:c r="H2" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I2">
-        <x:v>1</x:v>
+        <x:v>4.4721359549995796</x:v>
       </x:c>
       <x:c r="J2">
-        <x:v>205100</x:v>
+        <x:v>191100</x:v>
       </x:c>
       <x:c r="K2">
-        <x:v>19600</x:v>
+        <x:v>17700</x:v>
       </x:c>
       <x:c r="L2" t="s">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="M2">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N2">
-        <x:v>205100</x:v>
+        <x:v>191100</x:v>
       </x:c>
       <x:c r="O2">
-        <x:v>152500</x:v>
+        <x:v>1183800</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:15">
@@ -920,43 +920,43 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D3" t="s">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E3">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F3">
-        <x:v>18700</x:v>
+        <x:v>11800</x:v>
       </x:c>
       <x:c r="G3">
-        <x:v>23900</x:v>
+        <x:v>15400</x:v>
       </x:c>
       <x:c r="H3" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I3">
-        <x:v>1</x:v>
+        <x:v>4.4721359549995796</x:v>
       </x:c>
       <x:c r="J3">
-        <x:v>378299</x:v>
+        <x:v>460900</x:v>
       </x:c>
       <x:c r="K3">
-        <x:v>55899</x:v>
+        <x:v>13299</x:v>
       </x:c>
       <x:c r="L3" t="s">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="M3">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N3">
-        <x:v>378299</x:v>
+        <x:v>460900</x:v>
       </x:c>
       <x:c r="O3">
-        <x:v>29500</x:v>
+        <x:v>81401</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:15">
@@ -967,43 +967,43 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C4" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D4" t="s">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E4">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F4">
-        <x:v>23601</x:v>
+        <x:v>17602</x:v>
       </x:c>
       <x:c r="G4">
-        <x:v>24500</x:v>
+        <x:v>25900</x:v>
       </x:c>
       <x:c r="H4" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I4">
-        <x:v>1</x:v>
+        <x:v>4.4721359549995796</x:v>
       </x:c>
       <x:c r="J4">
-        <x:v>228200</x:v>
+        <x:v>248801</x:v>
       </x:c>
       <x:c r="K4">
-        <x:v>19100</x:v>
+        <x:v>13200</x:v>
       </x:c>
       <x:c r="L4" t="s">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="M4">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N4">
-        <x:v>228200</x:v>
+        <x:v>248801</x:v>
       </x:c>
       <x:c r="O4">
-        <x:v>69299</x:v>
+        <x:v>478101</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:15">
@@ -1014,43 +1014,43 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D5" t="s">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E5">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F5">
-        <x:v>13202</x:v>
+        <x:v>13098</x:v>
       </x:c>
       <x:c r="G5">
-        <x:v>15900</x:v>
+        <x:v>16300</x:v>
       </x:c>
       <x:c r="H5" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I5">
-        <x:v>1</x:v>
+        <x:v>4.4721359549995796</x:v>
       </x:c>
       <x:c r="J5">
-        <x:v>246201</x:v>
+        <x:v>214500</x:v>
       </x:c>
       <x:c r="K5">
-        <x:v>16600</x:v>
+        <x:v>13100</x:v>
       </x:c>
       <x:c r="L5" t="s">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="M5">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N5">
-        <x:v>246201</x:v>
+        <x:v>214500</x:v>
       </x:c>
       <x:c r="O5">
-        <x:v>25900</x:v>
+        <x:v>80500</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:15">
@@ -1061,43 +1061,43 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C6" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D6" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E6">
-        <x:v>5</x:v>
+        <x:v>4.7958315233127102</x:v>
       </x:c>
       <x:c r="F6">
-        <x:v>45098</x:v>
+        <x:v>39098</x:v>
       </x:c>
       <x:c r="G6">
-        <x:v>42999</x:v>
+        <x:v>57600</x:v>
       </x:c>
       <x:c r="H6" t="s">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I6">
+        <x:v>4.7958315233127102</x:v>
+      </x:c>
+      <x:c r="J6">
+        <x:v>621701</x:v>
+      </x:c>
+      <x:c r="K6">
+        <x:v>22101</x:v>
+      </x:c>
+      <x:c r="L6" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="J6">
-        <x:v>500800</x:v>
-      </x:c>
-      <x:c r="K6">
-        <x:v>22300</x:v>
-      </x:c>
-      <x:c r="L6" t="s">
-        <x:v>9</x:v>
-      </x:c>
       <x:c r="M6">
-        <x:v>5</x:v>
+        <x:v>4.7958315233127102</x:v>
       </x:c>
       <x:c r="N6">
-        <x:v>500800</x:v>
+        <x:v>621701</x:v>
       </x:c>
       <x:c r="O6">
-        <x:v>380800</x:v>
+        <x:v>40799</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:15">
@@ -1108,43 +1108,43 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C7" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D7" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E7">
-        <x:v>5</x:v>
+        <x:v>4.7958315233127102</x:v>
       </x:c>
       <x:c r="F7">
-        <x:v>31100</x:v>
+        <x:v>27302</x:v>
       </x:c>
       <x:c r="G7">
-        <x:v>48200</x:v>
+        <x:v>40300</x:v>
       </x:c>
       <x:c r="H7" t="s">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I7">
+        <x:v>4.7958315233127102</x:v>
+      </x:c>
+      <x:c r="J7">
+        <x:v>818401</x:v>
+      </x:c>
+      <x:c r="K7">
+        <x:v>20599</x:v>
+      </x:c>
+      <x:c r="L7" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="J7">
-        <x:v>801201</x:v>
-      </x:c>
-      <x:c r="K7">
-        <x:v>22699</x:v>
-      </x:c>
-      <x:c r="L7" t="s">
-        <x:v>9</x:v>
-      </x:c>
       <x:c r="M7">
-        <x:v>5</x:v>
+        <x:v>4.7958315233127102</x:v>
       </x:c>
       <x:c r="N7">
-        <x:v>801201</x:v>
+        <x:v>818401</x:v>
       </x:c>
       <x:c r="O7">
-        <x:v>228301</x:v>
+        <x:v>29900</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:15">
@@ -1155,43 +1155,43 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C8" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D8" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E8">
-        <x:v>5</x:v>
+        <x:v>4.7958315233127102</x:v>
       </x:c>
       <x:c r="F8">
-        <x:v>1251397</x:v>
+        <x:v>972198</x:v>
       </x:c>
       <x:c r="G8">
-        <x:v>58299</x:v>
+        <x:v>45200</x:v>
       </x:c>
       <x:c r="H8" t="s">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I8">
+        <x:v>4.7958315233127102</x:v>
+      </x:c>
+      <x:c r="J8">
+        <x:v>461000</x:v>
+      </x:c>
+      <x:c r="K8">
+        <x:v>24801</x:v>
+      </x:c>
+      <x:c r="L8" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="J8">
-        <x:v>436700</x:v>
-      </x:c>
-      <x:c r="K8">
-        <x:v>21199</x:v>
-      </x:c>
-      <x:c r="L8" t="s">
-        <x:v>9</x:v>
-      </x:c>
       <x:c r="M8">
-        <x:v>5</x:v>
+        <x:v>4.7958315233127102</x:v>
       </x:c>
       <x:c r="N8">
-        <x:v>436700</x:v>
+        <x:v>461000</x:v>
       </x:c>
       <x:c r="O8">
-        <x:v>127099</x:v>
+        <x:v>64901</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:15">
@@ -1202,43 +1202,43 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C9" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D9" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E9">
-        <x:v>5</x:v>
+        <x:v>4.7958315233127102</x:v>
       </x:c>
       <x:c r="F9">
-        <x:v>33602</x:v>
+        <x:v>76299</x:v>
       </x:c>
       <x:c r="G9">
-        <x:v>57501</x:v>
+        <x:v>101500</x:v>
       </x:c>
       <x:c r="H9" t="s">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I9">
+        <x:v>4.7958315233127102</x:v>
+      </x:c>
+      <x:c r="J9">
+        <x:v>677800</x:v>
+      </x:c>
+      <x:c r="K9">
+        <x:v>21599</x:v>
+      </x:c>
+      <x:c r="L9" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="J9">
-        <x:v>1664500</x:v>
-      </x:c>
-      <x:c r="K9">
-        <x:v>18401</x:v>
-      </x:c>
-      <x:c r="L9" t="s">
-        <x:v>9</x:v>
-      </x:c>
       <x:c r="M9">
-        <x:v>5</x:v>
+        <x:v>4.7958315233127102</x:v>
       </x:c>
       <x:c r="N9">
-        <x:v>1664500</x:v>
+        <x:v>677800</x:v>
       </x:c>
       <x:c r="O9">
-        <x:v>225400</x:v>
+        <x:v>28900</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:15">
@@ -1249,43 +1249,43 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C10" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D10" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E10">
-        <x:v>5</x:v>
+        <x:v>4.7958315233127102</x:v>
       </x:c>
       <x:c r="F10">
-        <x:v>40299</x:v>
+        <x:v>36299</x:v>
       </x:c>
       <x:c r="G10">
-        <x:v>41501</x:v>
+        <x:v>36700</x:v>
       </x:c>
       <x:c r="H10" t="s">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I10">
+        <x:v>4.7958315233127102</x:v>
+      </x:c>
+      <x:c r="J10">
+        <x:v>253801</x:v>
+      </x:c>
+      <x:c r="K10">
+        <x:v>16300</x:v>
+      </x:c>
+      <x:c r="L10" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="J10">
-        <x:v>309700</x:v>
-      </x:c>
-      <x:c r="K10">
-        <x:v>149400</x:v>
-      </x:c>
-      <x:c r="L10" t="s">
-        <x:v>9</x:v>
-      </x:c>
       <x:c r="M10">
-        <x:v>5</x:v>
+        <x:v>4.7958315233127102</x:v>
       </x:c>
       <x:c r="N10">
-        <x:v>309700</x:v>
+        <x:v>253801</x:v>
       </x:c>
       <x:c r="O10">
-        <x:v>56001</x:v>
+        <x:v>25700</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:15">
@@ -1296,43 +1296,43 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C11" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D11" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D11" t="s">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="E11">
-        <x:v>5</x:v>
+        <x:v>11.916375287812899</x:v>
       </x:c>
       <x:c r="F11">
-        <x:v>34398</x:v>
+        <x:v>46397</x:v>
       </x:c>
       <x:c r="G11">
-        <x:v>50500</x:v>
+        <x:v>75800</x:v>
       </x:c>
       <x:c r="H11" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I11">
-        <x:v>8</x:v>
+        <x:v>12.5698050899765</x:v>
       </x:c>
       <x:c r="J11">
-        <x:v>1096501</x:v>
+        <x:v>424401</x:v>
       </x:c>
       <x:c r="K11">
-        <x:v>23601</x:v>
+        <x:v>17199</x:v>
       </x:c>
       <x:c r="L11" t="s">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="M11">
-        <x:v>5</x:v>
+        <x:v>11.916375287812899</x:v>
       </x:c>
       <x:c r="N11">
-        <x:v>1096501</x:v>
+        <x:v>424401</x:v>
       </x:c>
       <x:c r="O11">
-        <x:v>39800</x:v>
+        <x:v>57100</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:15">
@@ -1343,43 +1343,43 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C12" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D12" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D12" t="s">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="E12">
-        <x:v>5</x:v>
+        <x:v>11.916375287812899</x:v>
       </x:c>
       <x:c r="F12">
-        <x:v>31099</x:v>
+        <x:v>29400</x:v>
       </x:c>
       <x:c r="G12">
-        <x:v>64400</x:v>
+        <x:v>49100</x:v>
       </x:c>
       <x:c r="H12" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I12">
-        <x:v>8</x:v>
+        <x:v>12.5698050899765</x:v>
       </x:c>
       <x:c r="J12">
-        <x:v>871300</x:v>
+        <x:v>409500</x:v>
       </x:c>
       <x:c r="K12">
-        <x:v>23699</x:v>
+        <x:v>23200</x:v>
       </x:c>
       <x:c r="L12" t="s">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="M12">
-        <x:v>5</x:v>
+        <x:v>11.916375287812899</x:v>
       </x:c>
       <x:c r="N12">
-        <x:v>871300</x:v>
+        <x:v>409500</x:v>
       </x:c>
       <x:c r="O12">
-        <x:v>183700</x:v>
+        <x:v>50800</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:15">
@@ -1390,43 +1390,43 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C13" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D13" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D13" t="s">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="E13">
-        <x:v>5</x:v>
+        <x:v>11.916375287812899</x:v>
       </x:c>
       <x:c r="F13">
-        <x:v>81100</x:v>
+        <x:v>38002</x:v>
       </x:c>
       <x:c r="G13">
-        <x:v>49299</x:v>
+        <x:v>50399</x:v>
       </x:c>
       <x:c r="H13" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I13">
-        <x:v>8</x:v>
+        <x:v>12.5698050899765</x:v>
       </x:c>
       <x:c r="J13">
-        <x:v>499200</x:v>
+        <x:v>450300</x:v>
       </x:c>
       <x:c r="K13">
-        <x:v>39199</x:v>
+        <x:v>22399</x:v>
       </x:c>
       <x:c r="L13" t="s">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="M13">
-        <x:v>5</x:v>
+        <x:v>11.916375287812899</x:v>
       </x:c>
       <x:c r="N13">
-        <x:v>499200</x:v>
+        <x:v>450300</x:v>
       </x:c>
       <x:c r="O13">
-        <x:v>42000</x:v>
+        <x:v>55900</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:15">
@@ -1437,43 +1437,43 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C14" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D14" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D14" t="s">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="E14">
-        <x:v>5</x:v>
+        <x:v>11.916375287812899</x:v>
       </x:c>
       <x:c r="F14">
-        <x:v>31801</x:v>
+        <x:v>38000</x:v>
       </x:c>
       <x:c r="G14">
-        <x:v>64399</x:v>
+        <x:v>70900</x:v>
       </x:c>
       <x:c r="H14" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I14">
-        <x:v>8</x:v>
+        <x:v>12.5698050899765</x:v>
       </x:c>
       <x:c r="J14">
-        <x:v>1166001</x:v>
+        <x:v>389701</x:v>
       </x:c>
       <x:c r="K14">
-        <x:v>22500</x:v>
+        <x:v>21900</x:v>
       </x:c>
       <x:c r="L14" t="s">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="M14">
-        <x:v>5</x:v>
+        <x:v>11.916375287812899</x:v>
       </x:c>
       <x:c r="N14">
-        <x:v>1166001</x:v>
+        <x:v>389701</x:v>
       </x:c>
       <x:c r="O14">
-        <x:v>113900</x:v>
+        <x:v>49700</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:15">
@@ -1484,43 +1484,43 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C15" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D15" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D15" t="s">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="E15">
-        <x:v>5</x:v>
+        <x:v>11.916375287812899</x:v>
       </x:c>
       <x:c r="F15">
-        <x:v>20600</x:v>
+        <x:v>122901</x:v>
       </x:c>
       <x:c r="G15">
-        <x:v>38000</x:v>
+        <x:v>19000</x:v>
       </x:c>
       <x:c r="H15" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I15">
-        <x:v>8</x:v>
+        <x:v>12.5698050899765</x:v>
       </x:c>
       <x:c r="J15">
-        <x:v>324799</x:v>
+        <x:v>406300</x:v>
       </x:c>
       <x:c r="K15">
-        <x:v>23601</x:v>
+        <x:v>72500</x:v>
       </x:c>
       <x:c r="L15" t="s">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="M15">
-        <x:v>5</x:v>
+        <x:v>11.916375287812899</x:v>
       </x:c>
       <x:c r="N15">
-        <x:v>324799</x:v>
+        <x:v>406300</x:v>
       </x:c>
       <x:c r="O15">
-        <x:v>87600</x:v>
+        <x:v>52300</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:15">
@@ -1531,43 +1531,43 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="C16" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D16" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E16">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D16" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E16">
-        <x:v>5</x:v>
-      </x:c>
       <x:c r="F16">
-        <x:v>25398</x:v>
+        <x:v>12400</x:v>
       </x:c>
       <x:c r="G16">
-        <x:v>49600</x:v>
+        <x:v>18999</x:v>
       </x:c>
       <x:c r="H16" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I16">
-        <x:v>15</x:v>
+        <x:v>15.4596248337403</x:v>
       </x:c>
       <x:c r="J16">
-        <x:v>602599</x:v>
+        <x:v>1890001</x:v>
       </x:c>
       <x:c r="K16">
-        <x:v>20401</x:v>
+        <x:v>31200</x:v>
       </x:c>
       <x:c r="L16" t="s">
-        <x:v>13</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="M16">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="N16">
-        <x:v>602599</x:v>
+        <x:v>1890001</x:v>
       </x:c>
       <x:c r="O16">
-        <x:v>20300</x:v>
+        <x:v>912199</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:15">
@@ -1578,43 +1578,43 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="C17" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D17" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E17">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D17" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E17">
-        <x:v>5</x:v>
-      </x:c>
       <x:c r="F17">
-        <x:v>15999</x:v>
+        <x:v>14899</x:v>
       </x:c>
       <x:c r="G17">
-        <x:v>82700</x:v>
+        <x:v>20400</x:v>
       </x:c>
       <x:c r="H17" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I17">
-        <x:v>15</x:v>
+        <x:v>15.4596248337403</x:v>
       </x:c>
       <x:c r="J17">
-        <x:v>428500</x:v>
+        <x:v>538300</x:v>
       </x:c>
       <x:c r="K17">
-        <x:v>28801</x:v>
+        <x:v>22200</x:v>
       </x:c>
       <x:c r="L17" t="s">
-        <x:v>13</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="M17">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="N17">
-        <x:v>428500</x:v>
+        <x:v>538300</x:v>
       </x:c>
       <x:c r="O17">
-        <x:v>33500</x:v>
+        <x:v>228500</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:15">
@@ -1625,43 +1625,43 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="C18" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D18" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E18">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D18" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E18">
-        <x:v>5</x:v>
-      </x:c>
       <x:c r="F18">
-        <x:v>8101</x:v>
+        <x:v>16100</x:v>
       </x:c>
       <x:c r="G18">
-        <x:v>68800</x:v>
+        <x:v>29800</x:v>
       </x:c>
       <x:c r="H18" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I18">
-        <x:v>15</x:v>
+        <x:v>15.4596248337403</x:v>
       </x:c>
       <x:c r="J18">
-        <x:v>1282400</x:v>
+        <x:v>413200</x:v>
       </x:c>
       <x:c r="K18">
-        <x:v>22899</x:v>
+        <x:v>21400</x:v>
       </x:c>
       <x:c r="L18" t="s">
-        <x:v>13</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="M18">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="N18">
-        <x:v>1282400</x:v>
+        <x:v>413200</x:v>
       </x:c>
       <x:c r="O18">
-        <x:v>18700</x:v>
+        <x:v>189300</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:15">
@@ -1672,43 +1672,43 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="C19" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D19" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E19">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D19" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E19">
-        <x:v>5</x:v>
-      </x:c>
       <x:c r="F19">
-        <x:v>19299</x:v>
+        <x:v>19298</x:v>
       </x:c>
       <x:c r="G19">
-        <x:v>18800</x:v>
+        <x:v>31100</x:v>
       </x:c>
       <x:c r="H19" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I19">
-        <x:v>15</x:v>
+        <x:v>15.4596248337403</x:v>
       </x:c>
       <x:c r="J19">
-        <x:v>542399</x:v>
+        <x:v>885200</x:v>
       </x:c>
       <x:c r="K19">
-        <x:v>25200</x:v>
+        <x:v>36599</x:v>
       </x:c>
       <x:c r="L19" t="s">
-        <x:v>13</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="M19">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="N19">
-        <x:v>542399</x:v>
+        <x:v>885200</x:v>
       </x:c>
       <x:c r="O19">
-        <x:v>17700</x:v>
+        <x:v>181200</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:15">
@@ -1719,43 +1719,43 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="C20" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D20" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E20">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D20" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E20">
-        <x:v>5</x:v>
-      </x:c>
       <x:c r="F20">
-        <x:v>9100</x:v>
+        <x:v>17501</x:v>
       </x:c>
       <x:c r="G20">
-        <x:v>12901</x:v>
+        <x:v>19101</x:v>
       </x:c>
       <x:c r="H20" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I20">
-        <x:v>15</x:v>
+        <x:v>15.4596248337403</x:v>
       </x:c>
       <x:c r="J20">
-        <x:v>270201</x:v>
+        <x:v>456400</x:v>
       </x:c>
       <x:c r="K20">
-        <x:v>23200</x:v>
+        <x:v>16100</x:v>
       </x:c>
       <x:c r="L20" t="s">
-        <x:v>13</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="M20">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="N20">
-        <x:v>270201</x:v>
+        <x:v>456400</x:v>
       </x:c>
       <x:c r="O20">
-        <x:v>15800</x:v>
+        <x:v>54800</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:15">
@@ -1766,43 +1766,43 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C21" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D21" t="s">
-        <x:v>15</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E21">
-        <x:v>2</x:v>
+        <x:v>3.74165738677394</x:v>
       </x:c>
       <x:c r="F21">
-        <x:v>9799</x:v>
+        <x:v>5600</x:v>
       </x:c>
       <x:c r="G21">
-        <x:v>63100</x:v>
+        <x:v>8900</x:v>
       </x:c>
       <x:c r="H21" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I21">
-        <x:v>4</x:v>
+        <x:v>4.1231056256176597</x:v>
       </x:c>
       <x:c r="J21">
-        <x:v>352901</x:v>
+        <x:v>84100</x:v>
       </x:c>
       <x:c r="K21">
-        <x:v>26399</x:v>
+        <x:v>19000</x:v>
       </x:c>
       <x:c r="L21" t="s">
-        <x:v>15</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M21">
-        <x:v>2</x:v>
+        <x:v>4.1231056256176597</x:v>
       </x:c>
       <x:c r="N21">
-        <x:v>352901</x:v>
+        <x:v>84100</x:v>
       </x:c>
       <x:c r="O21">
-        <x:v>217600</x:v>
+        <x:v>22301</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:15">
@@ -1813,43 +1813,43 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C22" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D22" t="s">
-        <x:v>15</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E22">
-        <x:v>2</x:v>
+        <x:v>3.74165738677394</x:v>
       </x:c>
       <x:c r="F22">
-        <x:v>9299</x:v>
+        <x:v>13299</x:v>
       </x:c>
       <x:c r="G22">
-        <x:v>11501</x:v>
+        <x:v>12100</x:v>
       </x:c>
       <x:c r="H22" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I22">
-        <x:v>4</x:v>
+        <x:v>4.1231056256176597</x:v>
       </x:c>
       <x:c r="J22">
-        <x:v>93500</x:v>
+        <x:v>56001</x:v>
       </x:c>
       <x:c r="K22">
-        <x:v>21599</x:v>
+        <x:v>9500</x:v>
       </x:c>
       <x:c r="L22" t="s">
-        <x:v>15</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M22">
-        <x:v>2</x:v>
+        <x:v>4.1231056256176597</x:v>
       </x:c>
       <x:c r="N22">
-        <x:v>93500</x:v>
+        <x:v>56001</x:v>
       </x:c>
       <x:c r="O22">
-        <x:v>136200</x:v>
+        <x:v>77000</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:15">
@@ -1860,43 +1860,43 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C23" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D23" t="s">
-        <x:v>15</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E23">
-        <x:v>2</x:v>
+        <x:v>3.74165738677394</x:v>
       </x:c>
       <x:c r="F23">
-        <x:v>9598</x:v>
+        <x:v>9600</x:v>
       </x:c>
       <x:c r="G23">
-        <x:v>10000</x:v>
+        <x:v>15200</x:v>
       </x:c>
       <x:c r="H23" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I23">
-        <x:v>4</x:v>
+        <x:v>4.1231056256176597</x:v>
       </x:c>
       <x:c r="J23">
-        <x:v>381600</x:v>
+        <x:v>297100</x:v>
       </x:c>
       <x:c r="K23">
-        <x:v>58300</x:v>
+        <x:v>15000</x:v>
       </x:c>
       <x:c r="L23" t="s">
-        <x:v>15</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M23">
-        <x:v>2</x:v>
+        <x:v>4.1231056256176597</x:v>
       </x:c>
       <x:c r="N23">
-        <x:v>381600</x:v>
+        <x:v>297100</x:v>
       </x:c>
       <x:c r="O23">
-        <x:v>37699</x:v>
+        <x:v>11700</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:15">
@@ -1907,43 +1907,43 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C24" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D24" t="s">
-        <x:v>15</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E24">
-        <x:v>2</x:v>
+        <x:v>3.74165738677394</x:v>
       </x:c>
       <x:c r="F24">
-        <x:v>8499</x:v>
+        <x:v>12100</x:v>
       </x:c>
       <x:c r="G24">
-        <x:v>7900</x:v>
+        <x:v>11001</x:v>
       </x:c>
       <x:c r="H24" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I24">
-        <x:v>4</x:v>
+        <x:v>4.1231056256176597</x:v>
       </x:c>
       <x:c r="J24">
-        <x:v>126901</x:v>
+        <x:v>117099</x:v>
       </x:c>
       <x:c r="K24">
-        <x:v>11600</x:v>
+        <x:v>13299</x:v>
       </x:c>
       <x:c r="L24" t="s">
-        <x:v>15</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M24">
-        <x:v>2</x:v>
+        <x:v>4.1231056256176597</x:v>
       </x:c>
       <x:c r="N24">
-        <x:v>126901</x:v>
+        <x:v>117099</x:v>
       </x:c>
       <x:c r="O24">
-        <x:v>94200</x:v>
+        <x:v>9501</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:15">
@@ -1954,43 +1954,43 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C25" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D25" t="s">
-        <x:v>15</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E25">
-        <x:v>2</x:v>
+        <x:v>3.74165738677394</x:v>
       </x:c>
       <x:c r="F25">
-        <x:v>9200</x:v>
+        <x:v>14901</x:v>
       </x:c>
       <x:c r="G25">
-        <x:v>13900</x:v>
+        <x:v>12701</x:v>
       </x:c>
       <x:c r="H25" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I25">
-        <x:v>4</x:v>
+        <x:v>4.1231056256176597</x:v>
       </x:c>
       <x:c r="J25">
-        <x:v>74800</x:v>
+        <x:v>101200</x:v>
       </x:c>
       <x:c r="K25">
-        <x:v>14301</x:v>
+        <x:v>18799</x:v>
       </x:c>
       <x:c r="L25" t="s">
-        <x:v>15</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M25">
-        <x:v>2</x:v>
+        <x:v>4.1231056256176597</x:v>
       </x:c>
       <x:c r="N25">
-        <x:v>74800</x:v>
+        <x:v>101200</x:v>
       </x:c>
       <x:c r="O25">
-        <x:v>81100</x:v>
+        <x:v>10799</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:15">
@@ -2001,43 +2001,43 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="C26" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D26" t="s">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E26">
+        <x:v>3.6055512754639798</x:v>
+      </x:c>
+      <x:c r="F26">
+        <x:v>14000</x:v>
+      </x:c>
+      <x:c r="G26">
+        <x:v>21199</x:v>
+      </x:c>
+      <x:c r="H26" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="F26">
-        <x:v>15199</x:v>
-      </x:c>
-      <x:c r="G26">
-        <x:v>20100</x:v>
-      </x:c>
-      <x:c r="H26" t="s">
-        <x:v>5</x:v>
-      </x:c>
       <x:c r="I26">
+        <x:v>3.6055512754639798</x:v>
+      </x:c>
+      <x:c r="J26">
+        <x:v>229800</x:v>
+      </x:c>
+      <x:c r="K26">
+        <x:v>14700</x:v>
+      </x:c>
+      <x:c r="L26" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="J26">
-        <x:v>358700</x:v>
-      </x:c>
-      <x:c r="K26">
-        <x:v>15900</x:v>
-      </x:c>
-      <x:c r="L26" t="s">
-        <x:v>5</x:v>
-      </x:c>
       <x:c r="M26">
-        <x:v>2</x:v>
+        <x:v>3.6055512754639798</x:v>
       </x:c>
       <x:c r="N26">
-        <x:v>358700</x:v>
+        <x:v>229800</x:v>
       </x:c>
       <x:c r="O26">
-        <x:v>5500</x:v>
+        <x:v>5801</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:15">
@@ -2048,43 +2048,43 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="C27" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D27" t="s">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E27">
+        <x:v>3.6055512754639798</x:v>
+      </x:c>
+      <x:c r="F27">
+        <x:v>17500</x:v>
+      </x:c>
+      <x:c r="G27">
+        <x:v>19800</x:v>
+      </x:c>
+      <x:c r="H27" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="F27">
-        <x:v>20500</x:v>
-      </x:c>
-      <x:c r="G27">
-        <x:v>22701</x:v>
-      </x:c>
-      <x:c r="H27" t="s">
-        <x:v>5</x:v>
-      </x:c>
       <x:c r="I27">
+        <x:v>3.6055512754639798</x:v>
+      </x:c>
+      <x:c r="J27">
+        <x:v>864701</x:v>
+      </x:c>
+      <x:c r="K27">
+        <x:v>24701</x:v>
+      </x:c>
+      <x:c r="L27" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="J27">
-        <x:v>346799</x:v>
-      </x:c>
-      <x:c r="K27">
-        <x:v>19500</x:v>
-      </x:c>
-      <x:c r="L27" t="s">
-        <x:v>5</x:v>
-      </x:c>
       <x:c r="M27">
-        <x:v>2</x:v>
+        <x:v>3.6055512754639798</x:v>
       </x:c>
       <x:c r="N27">
-        <x:v>346799</x:v>
+        <x:v>864701</x:v>
       </x:c>
       <x:c r="O27">
-        <x:v>5700</x:v>
+        <x:v>5099</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:15">
@@ -2095,43 +2095,43 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="C28" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D28" t="s">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E28">
+        <x:v>3.6055512754639798</x:v>
+      </x:c>
+      <x:c r="F28">
+        <x:v>17300</x:v>
+      </x:c>
+      <x:c r="G28">
+        <x:v>22201</x:v>
+      </x:c>
+      <x:c r="H28" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="F28">
-        <x:v>14800</x:v>
-      </x:c>
-      <x:c r="G28">
-        <x:v>20000</x:v>
-      </x:c>
-      <x:c r="H28" t="s">
-        <x:v>5</x:v>
-      </x:c>
       <x:c r="I28">
+        <x:v>3.6055512754639798</x:v>
+      </x:c>
+      <x:c r="J28">
+        <x:v>215501</x:v>
+      </x:c>
+      <x:c r="K28">
+        <x:v>18800</x:v>
+      </x:c>
+      <x:c r="L28" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="J28">
-        <x:v>267900</x:v>
-      </x:c>
-      <x:c r="K28">
-        <x:v>14200</x:v>
-      </x:c>
-      <x:c r="L28" t="s">
-        <x:v>5</x:v>
-      </x:c>
       <x:c r="M28">
-        <x:v>2</x:v>
+        <x:v>3.6055512754639798</x:v>
       </x:c>
       <x:c r="N28">
-        <x:v>267900</x:v>
+        <x:v>215501</x:v>
       </x:c>
       <x:c r="O28">
-        <x:v>5299</x:v>
+        <x:v>6300</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:15">
@@ -2142,43 +2142,43 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="C29" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D29" t="s">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E29">
+        <x:v>3.6055512754639798</x:v>
+      </x:c>
+      <x:c r="F29">
+        <x:v>16099</x:v>
+      </x:c>
+      <x:c r="G29">
+        <x:v>23899</x:v>
+      </x:c>
+      <x:c r="H29" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="F29">
-        <x:v>20999</x:v>
-      </x:c>
-      <x:c r="G29">
-        <x:v>25999</x:v>
-      </x:c>
-      <x:c r="H29" t="s">
-        <x:v>5</x:v>
-      </x:c>
       <x:c r="I29">
+        <x:v>3.6055512754639798</x:v>
+      </x:c>
+      <x:c r="J29">
+        <x:v>132000</x:v>
+      </x:c>
+      <x:c r="K29">
+        <x:v>11701</x:v>
+      </x:c>
+      <x:c r="L29" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="J29">
-        <x:v>144600</x:v>
-      </x:c>
-      <x:c r="K29">
-        <x:v>14000</x:v>
-      </x:c>
-      <x:c r="L29" t="s">
-        <x:v>5</x:v>
-      </x:c>
       <x:c r="M29">
-        <x:v>2</x:v>
+        <x:v>3.6055512754639798</x:v>
       </x:c>
       <x:c r="N29">
-        <x:v>144600</x:v>
+        <x:v>132000</x:v>
       </x:c>
       <x:c r="O29">
-        <x:v>5200</x:v>
+        <x:v>5999</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:15">
@@ -2189,43 +2189,43 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="C30" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D30" t="s">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E30">
+        <x:v>3.6055512754639798</x:v>
+      </x:c>
+      <x:c r="F30">
+        <x:v>18499</x:v>
+      </x:c>
+      <x:c r="G30">
+        <x:v>20999</x:v>
+      </x:c>
+      <x:c r="H30" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="F30">
-        <x:v>15099</x:v>
-      </x:c>
-      <x:c r="G30">
-        <x:v>20299</x:v>
-      </x:c>
-      <x:c r="H30" t="s">
-        <x:v>5</x:v>
-      </x:c>
       <x:c r="I30">
+        <x:v>3.6055512754639798</x:v>
+      </x:c>
+      <x:c r="J30">
+        <x:v>154000</x:v>
+      </x:c>
+      <x:c r="K30">
+        <x:v>14900</x:v>
+      </x:c>
+      <x:c r="L30" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="J30">
-        <x:v>128500</x:v>
-      </x:c>
-      <x:c r="K30">
-        <x:v>12800</x:v>
-      </x:c>
-      <x:c r="L30" t="s">
-        <x:v>5</x:v>
-      </x:c>
       <x:c r="M30">
-        <x:v>2</x:v>
+        <x:v>3.6055512754639798</x:v>
       </x:c>
       <x:c r="N30">
-        <x:v>128500</x:v>
+        <x:v>154000</x:v>
       </x:c>
       <x:c r="O30">
-        <x:v>4800</x:v>
+        <x:v>5899</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:15">
@@ -2236,43 +2236,43 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="C31" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D31" t="s">
-        <x:v>6</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E31">
-        <x:v>6</x:v>
+        <x:v>9.0553851381374102</x:v>
       </x:c>
       <x:c r="F31">
-        <x:v>29400</x:v>
+        <x:v>17100</x:v>
       </x:c>
       <x:c r="G31">
-        <x:v>35899</x:v>
+        <x:v>23400</x:v>
       </x:c>
       <x:c r="H31" t="s">
-        <x:v>6</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I31">
-        <x:v>6</x:v>
+        <x:v>9.5916630466254293</x:v>
       </x:c>
       <x:c r="J31">
-        <x:v>318800</x:v>
+        <x:v>402000</x:v>
       </x:c>
       <x:c r="K31">
-        <x:v>14500</x:v>
+        <x:v>14600</x:v>
       </x:c>
       <x:c r="L31" t="s">
-        <x:v>6</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="M31">
-        <x:v>6</x:v>
+        <x:v>9.0553851381374102</x:v>
       </x:c>
       <x:c r="N31">
-        <x:v>318800</x:v>
+        <x:v>402000</x:v>
       </x:c>
       <x:c r="O31">
-        <x:v>8699</x:v>
+        <x:v>21499</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:15">
@@ -2283,43 +2283,43 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="C32" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D32" t="s">
-        <x:v>6</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E32">
-        <x:v>6</x:v>
+        <x:v>9.0553851381374102</x:v>
       </x:c>
       <x:c r="F32">
-        <x:v>29801</x:v>
+        <x:v>18601</x:v>
       </x:c>
       <x:c r="G32">
-        <x:v>34400</x:v>
+        <x:v>25300</x:v>
       </x:c>
       <x:c r="H32" t="s">
-        <x:v>6</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I32">
-        <x:v>6</x:v>
+        <x:v>9.5916630466254293</x:v>
       </x:c>
       <x:c r="J32">
-        <x:v>425099</x:v>
+        <x:v>494700</x:v>
       </x:c>
       <x:c r="K32">
-        <x:v>15900</x:v>
+        <x:v>17101</x:v>
       </x:c>
       <x:c r="L32" t="s">
-        <x:v>6</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="M32">
-        <x:v>6</x:v>
+        <x:v>9.0553851381374102</x:v>
       </x:c>
       <x:c r="N32">
-        <x:v>425099</x:v>
+        <x:v>494700</x:v>
       </x:c>
       <x:c r="O32">
-        <x:v>9599</x:v>
+        <x:v>24399</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:15">
@@ -2330,43 +2330,43 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="C33" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D33" t="s">
-        <x:v>6</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E33">
-        <x:v>6</x:v>
+        <x:v>9.0553851381374102</x:v>
       </x:c>
       <x:c r="F33">
-        <x:v>34800</x:v>
+        <x:v>16999</x:v>
       </x:c>
       <x:c r="G33">
-        <x:v>40200</x:v>
+        <x:v>59800</x:v>
       </x:c>
       <x:c r="H33" t="s">
-        <x:v>6</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I33">
-        <x:v>6</x:v>
+        <x:v>9.5916630466254293</x:v>
       </x:c>
       <x:c r="J33">
-        <x:v>1087700</x:v>
+        <x:v>435099</x:v>
       </x:c>
       <x:c r="K33">
-        <x:v>85200</x:v>
+        <x:v>16100</x:v>
       </x:c>
       <x:c r="L33" t="s">
-        <x:v>6</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="M33">
-        <x:v>6</x:v>
+        <x:v>9.0553851381374102</x:v>
       </x:c>
       <x:c r="N33">
-        <x:v>1087700</x:v>
+        <x:v>435099</x:v>
       </x:c>
       <x:c r="O33">
-        <x:v>9100</x:v>
+        <x:v>26001</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:15">
@@ -2377,43 +2377,43 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="C34" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D34" t="s">
-        <x:v>6</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E34">
-        <x:v>6</x:v>
+        <x:v>9.0553851381374102</x:v>
       </x:c>
       <x:c r="F34">
-        <x:v>31701</x:v>
+        <x:v>26102</x:v>
       </x:c>
       <x:c r="G34">
-        <x:v>35299</x:v>
+        <x:v>37800</x:v>
       </x:c>
       <x:c r="H34" t="s">
-        <x:v>6</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I34">
-        <x:v>6</x:v>
+        <x:v>9.5916630466254293</x:v>
       </x:c>
       <x:c r="J34">
-        <x:v>724201</x:v>
+        <x:v>323000</x:v>
       </x:c>
       <x:c r="K34">
-        <x:v>16500</x:v>
+        <x:v>19700</x:v>
       </x:c>
       <x:c r="L34" t="s">
-        <x:v>6</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="M34">
-        <x:v>6</x:v>
+        <x:v>9.0553851381374102</x:v>
       </x:c>
       <x:c r="N34">
-        <x:v>724201</x:v>
+        <x:v>323000</x:v>
       </x:c>
       <x:c r="O34">
-        <x:v>8499</x:v>
+        <x:v>26500</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:15">
@@ -2424,43 +2424,43 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="C35" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D35" t="s">
-        <x:v>6</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E35">
-        <x:v>6</x:v>
+        <x:v>9.0553851381374102</x:v>
       </x:c>
       <x:c r="F35">
-        <x:v>17601</x:v>
+        <x:v>26899</x:v>
       </x:c>
       <x:c r="G35">
-        <x:v>23401</x:v>
+        <x:v>39201</x:v>
       </x:c>
       <x:c r="H35" t="s">
-        <x:v>6</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I35">
-        <x:v>6</x:v>
+        <x:v>9.5916630466254293</x:v>
       </x:c>
       <x:c r="J35">
-        <x:v>436000</x:v>
+        <x:v>403400</x:v>
       </x:c>
       <x:c r="K35">
-        <x:v>15100</x:v>
+        <x:v>23799</x:v>
       </x:c>
       <x:c r="L35" t="s">
-        <x:v>6</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="M35">
-        <x:v>6</x:v>
+        <x:v>9.0553851381374102</x:v>
       </x:c>
       <x:c r="N35">
-        <x:v>436000</x:v>
+        <x:v>403400</x:v>
       </x:c>
       <x:c r="O35">
-        <x:v>8500</x:v>
+        <x:v>26701</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:15">
@@ -2471,43 +2471,43 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="C36" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D36" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E36">
-        <x:v>4</x:v>
+        <x:v>9.9498743710661994</x:v>
       </x:c>
       <x:c r="F36">
-        <x:v>55203</x:v>
+        <x:v>46902</x:v>
       </x:c>
       <x:c r="G36">
-        <x:v>78300</x:v>
+        <x:v>70000</x:v>
       </x:c>
       <x:c r="H36" t="s">
-        <x:v>4</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I36">
-        <x:v>10</x:v>
+        <x:v>11.575836902790201</x:v>
       </x:c>
       <x:c r="J36">
-        <x:v>806901</x:v>
+        <x:v>1213700</x:v>
       </x:c>
       <x:c r="K36">
-        <x:v>16500</x:v>
+        <x:v>17201</x:v>
       </x:c>
       <x:c r="L36" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="M36">
-        <x:v>4</x:v>
+        <x:v>9.9498743710661994</x:v>
       </x:c>
       <x:c r="N36">
-        <x:v>806901</x:v>
+        <x:v>1213700</x:v>
       </x:c>
       <x:c r="O36">
-        <x:v>10501</x:v>
+        <x:v>13101</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:15">
@@ -2518,43 +2518,43 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="C37" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D37" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E37">
-        <x:v>4</x:v>
+        <x:v>9.9498743710661994</x:v>
       </x:c>
       <x:c r="F37">
-        <x:v>52401</x:v>
+        <x:v>59601</x:v>
       </x:c>
       <x:c r="G37">
-        <x:v>79799</x:v>
+        <x:v>97700</x:v>
       </x:c>
       <x:c r="H37" t="s">
-        <x:v>4</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I37">
-        <x:v>10</x:v>
+        <x:v>11.575836902790201</x:v>
       </x:c>
       <x:c r="J37">
-        <x:v>930300</x:v>
+        <x:v>774301</x:v>
       </x:c>
       <x:c r="K37">
-        <x:v>19001</x:v>
+        <x:v>16099</x:v>
       </x:c>
       <x:c r="L37" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="M37">
-        <x:v>4</x:v>
+        <x:v>9.9498743710661994</x:v>
       </x:c>
       <x:c r="N37">
-        <x:v>930300</x:v>
+        <x:v>774301</x:v>
       </x:c>
       <x:c r="O37">
-        <x:v>15600</x:v>
+        <x:v>13900</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:15">
@@ -2565,43 +2565,43 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="C38" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D38" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E38">
-        <x:v>4</x:v>
+        <x:v>9.9498743710661994</x:v>
       </x:c>
       <x:c r="F38">
-        <x:v>54000</x:v>
+        <x:v>53197</x:v>
       </x:c>
       <x:c r="G38">
-        <x:v>76800</x:v>
+        <x:v>215800</x:v>
       </x:c>
       <x:c r="H38" t="s">
-        <x:v>4</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I38">
-        <x:v>10</x:v>
+        <x:v>11.575836902790201</x:v>
       </x:c>
       <x:c r="J38">
-        <x:v>623500</x:v>
+        <x:v>991499</x:v>
       </x:c>
       <x:c r="K38">
-        <x:v>23900</x:v>
+        <x:v>22600</x:v>
       </x:c>
       <x:c r="L38" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="M38">
-        <x:v>4</x:v>
+        <x:v>9.9498743710661994</x:v>
       </x:c>
       <x:c r="N38">
-        <x:v>623500</x:v>
+        <x:v>991499</x:v>
       </x:c>
       <x:c r="O38">
-        <x:v>9600</x:v>
+        <x:v>13899</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:15">
@@ -2612,43 +2612,43 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="C39" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D39" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E39">
-        <x:v>4</x:v>
+        <x:v>9.9498743710661994</x:v>
       </x:c>
       <x:c r="F39">
-        <x:v>30397</x:v>
+        <x:v>50101</x:v>
       </x:c>
       <x:c r="G39">
-        <x:v>45100</x:v>
+        <x:v>75201</x:v>
       </x:c>
       <x:c r="H39" t="s">
-        <x:v>4</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I39">
-        <x:v>10</x:v>
+        <x:v>11.575836902790201</x:v>
       </x:c>
       <x:c r="J39">
-        <x:v>1131600</x:v>
+        <x:v>735901</x:v>
       </x:c>
       <x:c r="K39">
-        <x:v>87100</x:v>
+        <x:v>17300</x:v>
       </x:c>
       <x:c r="L39" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="M39">
-        <x:v>4</x:v>
+        <x:v>9.9498743710661994</x:v>
       </x:c>
       <x:c r="N39">
-        <x:v>1131600</x:v>
+        <x:v>735901</x:v>
       </x:c>
       <x:c r="O39">
-        <x:v>10000</x:v>
+        <x:v>13099</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:15">
@@ -2659,43 +2659,43 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="C40" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D40" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E40">
-        <x:v>4</x:v>
+        <x:v>9.9498743710661994</x:v>
       </x:c>
       <x:c r="F40">
-        <x:v>53798</x:v>
+        <x:v>59100</x:v>
       </x:c>
       <x:c r="G40">
-        <x:v>70400</x:v>
+        <x:v>109000</x:v>
       </x:c>
       <x:c r="H40" t="s">
-        <x:v>4</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I40">
-        <x:v>10</x:v>
+        <x:v>11.575836902790201</x:v>
       </x:c>
       <x:c r="J40">
-        <x:v>813799</x:v>
+        <x:v>1176800</x:v>
       </x:c>
       <x:c r="K40">
-        <x:v>16500</x:v>
+        <x:v>17899</x:v>
       </x:c>
       <x:c r="L40" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="M40">
-        <x:v>4</x:v>
+        <x:v>9.9498743710661994</x:v>
       </x:c>
       <x:c r="N40">
-        <x:v>813799</x:v>
+        <x:v>1176800</x:v>
       </x:c>
       <x:c r="O40">
-        <x:v>7300</x:v>
+        <x:v>11499</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:15">
@@ -2706,43 +2706,43 @@
         <x:v>320</x:v>
       </x:c>
       <x:c r="C41" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D41" t="s">
-        <x:v>20</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E41">
-        <x:v>8</x:v>
+        <x:v>11.7473401244707</x:v>
       </x:c>
       <x:c r="F41">
-        <x:v>55100</x:v>
+        <x:v>102899</x:v>
       </x:c>
       <x:c r="G41">
-        <x:v>92000</x:v>
+        <x:v>194099</x:v>
       </x:c>
       <x:c r="H41" t="s">
-        <x:v>18</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I41">
-        <x:v>12</x:v>
+        <x:v>14.628738838327701</x:v>
       </x:c>
       <x:c r="J41">
-        <x:v>1759899</x:v>
+        <x:v>1461099</x:v>
       </x:c>
       <x:c r="K41">
-        <x:v>17800</x:v>
+        <x:v>17500</x:v>
       </x:c>
       <x:c r="L41" t="s">
-        <x:v>19</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="M41">
-        <x:v>9</x:v>
+        <x:v>11.7473401244707</x:v>
       </x:c>
       <x:c r="N41">
-        <x:v>1759899</x:v>
+        <x:v>1461099</x:v>
       </x:c>
       <x:c r="O41">
-        <x:v>12201</x:v>
+        <x:v>10999</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:15">
@@ -2753,43 +2753,43 @@
         <x:v>320</x:v>
       </x:c>
       <x:c r="C42" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D42" t="s">
-        <x:v>20</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E42">
-        <x:v>8</x:v>
+        <x:v>11.7473401244707</x:v>
       </x:c>
       <x:c r="F42">
-        <x:v>55399</x:v>
+        <x:v>96404</x:v>
       </x:c>
       <x:c r="G42">
-        <x:v>92100</x:v>
+        <x:v>142299</x:v>
       </x:c>
       <x:c r="H42" t="s">
-        <x:v>18</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I42">
-        <x:v>12</x:v>
+        <x:v>14.628738838327701</x:v>
       </x:c>
       <x:c r="J42">
-        <x:v>1869400</x:v>
+        <x:v>2202300</x:v>
       </x:c>
       <x:c r="K42">
-        <x:v>19001</x:v>
+        <x:v>35799</x:v>
       </x:c>
       <x:c r="L42" t="s">
-        <x:v>19</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="M42">
-        <x:v>9</x:v>
+        <x:v>11.7473401244707</x:v>
       </x:c>
       <x:c r="N42">
-        <x:v>1869400</x:v>
+        <x:v>2202300</x:v>
       </x:c>
       <x:c r="O42">
-        <x:v>13900</x:v>
+        <x:v>12800</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:15">
@@ -2800,43 +2800,43 @@
         <x:v>320</x:v>
       </x:c>
       <x:c r="C43" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D43" t="s">
-        <x:v>20</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E43">
-        <x:v>8</x:v>
+        <x:v>11.7473401244707</x:v>
       </x:c>
       <x:c r="F43">
-        <x:v>111999</x:v>
+        <x:v>107798</x:v>
       </x:c>
       <x:c r="G43">
-        <x:v>138801</x:v>
+        <x:v>159401</x:v>
       </x:c>
       <x:c r="H43" t="s">
-        <x:v>18</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I43">
-        <x:v>12</x:v>
+        <x:v>14.628738838327701</x:v>
       </x:c>
       <x:c r="J43">
-        <x:v>3511800</x:v>
+        <x:v>1837200</x:v>
       </x:c>
       <x:c r="K43">
-        <x:v>29600</x:v>
+        <x:v>17600</x:v>
       </x:c>
       <x:c r="L43" t="s">
-        <x:v>19</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="M43">
-        <x:v>9</x:v>
+        <x:v>11.7473401244707</x:v>
       </x:c>
       <x:c r="N43">
-        <x:v>3511800</x:v>
+        <x:v>1837200</x:v>
       </x:c>
       <x:c r="O43">
-        <x:v>13400</x:v>
+        <x:v>13500</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:15">
@@ -2847,43 +2847,43 @@
         <x:v>320</x:v>
       </x:c>
       <x:c r="C44" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D44" t="s">
-        <x:v>20</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E44">
-        <x:v>8</x:v>
+        <x:v>11.7473401244707</x:v>
       </x:c>
       <x:c r="F44">
-        <x:v>101700</x:v>
+        <x:v>89602</x:v>
       </x:c>
       <x:c r="G44">
-        <x:v>152200</x:v>
+        <x:v>140799</x:v>
       </x:c>
       <x:c r="H44" t="s">
-        <x:v>18</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I44">
-        <x:v>12</x:v>
+        <x:v>14.628738838327701</x:v>
       </x:c>
       <x:c r="J44">
-        <x:v>9703200</x:v>
+        <x:v>4832001</x:v>
       </x:c>
       <x:c r="K44">
-        <x:v>312999</x:v>
+        <x:v>27700</x:v>
       </x:c>
       <x:c r="L44" t="s">
-        <x:v>19</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="M44">
-        <x:v>9</x:v>
+        <x:v>11.7473401244707</x:v>
       </x:c>
       <x:c r="N44">
-        <x:v>9703200</x:v>
+        <x:v>4832001</x:v>
       </x:c>
       <x:c r="O44">
-        <x:v>13400</x:v>
+        <x:v>11100</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:15">
@@ -2894,43 +2894,43 @@
         <x:v>320</x:v>
       </x:c>
       <x:c r="C45" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D45" t="s">
-        <x:v>20</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E45">
-        <x:v>8</x:v>
+        <x:v>11.7473401244707</x:v>
       </x:c>
       <x:c r="F45">
-        <x:v>101503</x:v>
+        <x:v>94500</x:v>
       </x:c>
       <x:c r="G45">
-        <x:v>148900</x:v>
+        <x:v>155901</x:v>
       </x:c>
       <x:c r="H45" t="s">
-        <x:v>18</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I45">
-        <x:v>12</x:v>
+        <x:v>14.628738838327701</x:v>
       </x:c>
       <x:c r="J45">
-        <x:v>1076301</x:v>
+        <x:v>2591499</x:v>
       </x:c>
       <x:c r="K45">
-        <x:v>19799</x:v>
+        <x:v>19900</x:v>
       </x:c>
       <x:c r="L45" t="s">
-        <x:v>19</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="M45">
-        <x:v>9</x:v>
+        <x:v>11.7473401244707</x:v>
       </x:c>
       <x:c r="N45">
-        <x:v>1076301</x:v>
+        <x:v>2591499</x:v>
       </x:c>
       <x:c r="O45">
-        <x:v>29800</x:v>
+        <x:v>11799</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:15">
@@ -2941,43 +2941,43 @@
         <x:v>640</x:v>
       </x:c>
       <x:c r="C46" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D46" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E46">
-        <x:v>10</x:v>
+        <x:v>10.3440804327886</x:v>
       </x:c>
       <x:c r="F46">
-        <x:v>180198</x:v>
+        <x:v>238603</x:v>
       </x:c>
       <x:c r="G46">
-        <x:v>351899</x:v>
+        <x:v>506100</x:v>
       </x:c>
       <x:c r="H46" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I46">
-        <x:v>10</x:v>
+        <x:v>10.3440804327886</x:v>
       </x:c>
       <x:c r="J46">
-        <x:v>1666400</x:v>
+        <x:v>2267900</x:v>
       </x:c>
       <x:c r="K46">
-        <x:v>15300</x:v>
+        <x:v>18100</x:v>
       </x:c>
       <x:c r="L46" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="M46">
-        <x:v>10</x:v>
+        <x:v>10.3440804327886</x:v>
       </x:c>
       <x:c r="N46">
-        <x:v>1666400</x:v>
+        <x:v>2267900</x:v>
       </x:c>
       <x:c r="O46">
-        <x:v>42000</x:v>
+        <x:v>895599</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:15">
@@ -2988,43 +2988,43 @@
         <x:v>640</x:v>
       </x:c>
       <x:c r="C47" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D47" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E47">
-        <x:v>10</x:v>
+        <x:v>10.3440804327886</x:v>
       </x:c>
       <x:c r="F47">
-        <x:v>209301</x:v>
+        <x:v>206498</x:v>
       </x:c>
       <x:c r="G47">
-        <x:v>344199</x:v>
+        <x:v>382500</x:v>
       </x:c>
       <x:c r="H47" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I47">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="J47">
-        <x:v>2048400</x:v>
+        <x:v>10.3440804327886</x:v>
+      </x:c>
+      <x:c r="J47" s="1">
+        <x:v>44106500</x:v>
       </x:c>
       <x:c r="K47">
-        <x:v>19500</x:v>
+        <x:v>25700</x:v>
       </x:c>
       <x:c r="L47" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="M47">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="N47">
-        <x:v>2048400</x:v>
+        <x:v>10.3440804327886</x:v>
+      </x:c>
+      <x:c r="N47" s="1">
+        <x:v>44106500</x:v>
       </x:c>
       <x:c r="O47">
-        <x:v>39999</x:v>
+        <x:v>4083599</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:15">
@@ -3035,43 +3035,43 @@
         <x:v>640</x:v>
       </x:c>
       <x:c r="C48" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D48" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E48">
-        <x:v>10</x:v>
+        <x:v>10.3440804327886</x:v>
       </x:c>
       <x:c r="F48">
-        <x:v>205398</x:v>
+        <x:v>196103</x:v>
       </x:c>
       <x:c r="G48">
-        <x:v>308000</x:v>
+        <x:v>170800</x:v>
       </x:c>
       <x:c r="H48" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I48">
-        <x:v>10</x:v>
+        <x:v>10.3440804327886</x:v>
       </x:c>
       <x:c r="J48">
-        <x:v>1994301</x:v>
+        <x:v>1886699</x:v>
       </x:c>
       <x:c r="K48">
-        <x:v>20599</x:v>
+        <x:v>18700</x:v>
       </x:c>
       <x:c r="L48" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="M48">
-        <x:v>10</x:v>
+        <x:v>10.3440804327886</x:v>
       </x:c>
       <x:c r="N48">
-        <x:v>1994301</x:v>
+        <x:v>1886699</x:v>
       </x:c>
       <x:c r="O48">
-        <x:v>49800</x:v>
+        <x:v>721200</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:15">
@@ -3082,43 +3082,43 @@
         <x:v>640</x:v>
       </x:c>
       <x:c r="C49" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D49" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E49">
-        <x:v>10</x:v>
+        <x:v>10.3440804327886</x:v>
       </x:c>
       <x:c r="F49">
-        <x:v>190500</x:v>
-      </x:c>
-      <x:c r="G49">
-        <x:v>154000</x:v>
+        <x:v>189501</x:v>
+      </x:c>
+      <x:c r="G49" s="1">
+        <x:v>54651099</x:v>
       </x:c>
       <x:c r="H49" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I49">
-        <x:v>10</x:v>
+        <x:v>10.3440804327886</x:v>
       </x:c>
       <x:c r="J49">
-        <x:v>5694500</x:v>
+        <x:v>3608500</x:v>
       </x:c>
       <x:c r="K49">
-        <x:v>26600</x:v>
+        <x:v>19699</x:v>
       </x:c>
       <x:c r="L49" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="M49">
-        <x:v>10</x:v>
+        <x:v>10.3440804327886</x:v>
       </x:c>
       <x:c r="N49">
-        <x:v>5694500</x:v>
+        <x:v>3608500</x:v>
       </x:c>
       <x:c r="O49">
-        <x:v>34100</x:v>
+        <x:v>645801</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:15">
@@ -3129,43 +3129,43 @@
         <x:v>640</x:v>
       </x:c>
       <x:c r="C50" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D50" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E50">
-        <x:v>10</x:v>
+        <x:v>10.3440804327886</x:v>
       </x:c>
       <x:c r="F50">
-        <x:v>196104</x:v>
+        <x:v>174500</x:v>
       </x:c>
       <x:c r="G50">
-        <x:v>136500</x:v>
+        <x:v>152900</x:v>
       </x:c>
       <x:c r="H50" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I50">
-        <x:v>10</x:v>
+        <x:v>10.3440804327886</x:v>
       </x:c>
       <x:c r="J50">
-        <x:v>6706199</x:v>
+        <x:v>6474901</x:v>
       </x:c>
       <x:c r="K50">
-        <x:v>30400</x:v>
+        <x:v>21900</x:v>
       </x:c>
       <x:c r="L50" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="M50">
-        <x:v>10</x:v>
+        <x:v>10.3440804327886</x:v>
       </x:c>
       <x:c r="N50">
-        <x:v>6706199</x:v>
+        <x:v>6474901</x:v>
       </x:c>
       <x:c r="O50">
-        <x:v>41299</x:v>
+        <x:v>653799</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:15">
@@ -3176,43 +3176,43 @@
         <x:v>1280</x:v>
       </x:c>
       <x:c r="C51" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D51" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E51">
-        <x:v>11</x:v>
+        <x:v>10.295630140987001</x:v>
       </x:c>
       <x:c r="F51">
-        <x:v>392708</x:v>
+        <x:v>407502</x:v>
       </x:c>
       <x:c r="G51">
-        <x:v>304900</x:v>
+        <x:v>345200</x:v>
       </x:c>
       <x:c r="H51" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I51">
-        <x:v>13</x:v>
+        <x:v>10.677078252031301</x:v>
       </x:c>
       <x:c r="J51">
-        <x:v>7786100</x:v>
+        <x:v>4472000</x:v>
       </x:c>
       <x:c r="K51">
-        <x:v>24700</x:v>
+        <x:v>25200</x:v>
       </x:c>
       <x:c r="L51" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="M51">
-        <x:v>11</x:v>
+        <x:v>10.295630140987001</x:v>
       </x:c>
       <x:c r="N51">
-        <x:v>7786100</x:v>
+        <x:v>4472000</x:v>
       </x:c>
       <x:c r="O51">
-        <x:v>18700</x:v>
+        <x:v>58900</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:15">
@@ -3223,43 +3223,43 @@
         <x:v>1280</x:v>
       </x:c>
       <x:c r="C52" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D52" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E52">
-        <x:v>11</x:v>
+        <x:v>10.295630140987001</x:v>
       </x:c>
       <x:c r="F52">
-        <x:v>431100</x:v>
+        <x:v>457603</x:v>
       </x:c>
       <x:c r="G52">
-        <x:v>3014000</x:v>
+        <x:v>348901</x:v>
       </x:c>
       <x:c r="H52" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I52">
-        <x:v>13</x:v>
+        <x:v>10.677078252031301</x:v>
       </x:c>
       <x:c r="J52">
-        <x:v>4380199</x:v>
+        <x:v>6693900</x:v>
       </x:c>
       <x:c r="K52">
-        <x:v>29200</x:v>
+        <x:v>29000</x:v>
       </x:c>
       <x:c r="L52" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="M52">
-        <x:v>11</x:v>
+        <x:v>10.295630140987001</x:v>
       </x:c>
       <x:c r="N52">
-        <x:v>4380199</x:v>
+        <x:v>6693900</x:v>
       </x:c>
       <x:c r="O52">
-        <x:v>18401</x:v>
+        <x:v>11199</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:15">
@@ -3270,43 +3270,43 @@
         <x:v>1280</x:v>
       </x:c>
       <x:c r="C53" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D53" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E53">
-        <x:v>11</x:v>
+        <x:v>10.295630140987001</x:v>
       </x:c>
       <x:c r="F53">
-        <x:v>578696</x:v>
+        <x:v>5154599</x:v>
       </x:c>
       <x:c r="G53">
-        <x:v>1125099</x:v>
+        <x:v>267001</x:v>
       </x:c>
       <x:c r="H53" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I53">
-        <x:v>13</x:v>
+        <x:v>10.677078252031301</x:v>
       </x:c>
       <x:c r="J53">
-        <x:v>9020800</x:v>
+        <x:v>3754301</x:v>
       </x:c>
       <x:c r="K53">
-        <x:v>22901</x:v>
+        <x:v>23601</x:v>
       </x:c>
       <x:c r="L53" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="M53">
-        <x:v>11</x:v>
+        <x:v>10.295630140987001</x:v>
       </x:c>
       <x:c r="N53">
-        <x:v>9020800</x:v>
+        <x:v>3754301</x:v>
       </x:c>
       <x:c r="O53">
-        <x:v>17401</x:v>
+        <x:v>9700</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:15">
@@ -3317,43 +3317,43 @@
         <x:v>1280</x:v>
       </x:c>
       <x:c r="C54" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D54" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E54">
-        <x:v>11</x:v>
+        <x:v>10.295630140987001</x:v>
       </x:c>
       <x:c r="F54">
-        <x:v>314289</x:v>
+        <x:v>295892</x:v>
       </x:c>
       <x:c r="G54">
-        <x:v>318000</x:v>
+        <x:v>429299</x:v>
       </x:c>
       <x:c r="H54" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I54">
-        <x:v>13</x:v>
+        <x:v>10.677078252031301</x:v>
       </x:c>
       <x:c r="J54">
-        <x:v>3866600</x:v>
+        <x:v>3894799</x:v>
       </x:c>
       <x:c r="K54">
-        <x:v>23901</x:v>
+        <x:v>23400</x:v>
       </x:c>
       <x:c r="L54" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="M54">
-        <x:v>11</x:v>
+        <x:v>10.295630140987001</x:v>
       </x:c>
       <x:c r="N54">
-        <x:v>3866600</x:v>
+        <x:v>3894799</x:v>
       </x:c>
       <x:c r="O54">
-        <x:v>20601</x:v>
+        <x:v>11200</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:15">
@@ -3364,43 +3364,43 @@
         <x:v>1280</x:v>
       </x:c>
       <x:c r="C55" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D55" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E55">
-        <x:v>11</x:v>
+        <x:v>10.295630140987001</x:v>
       </x:c>
       <x:c r="F55">
-        <x:v>297989</x:v>
+        <x:v>290197</x:v>
       </x:c>
       <x:c r="G55">
-        <x:v>362400</x:v>
+        <x:v>1583800</x:v>
       </x:c>
       <x:c r="H55" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I55">
-        <x:v>13</x:v>
+        <x:v>10.677078252031301</x:v>
       </x:c>
       <x:c r="J55">
-        <x:v>5253500</x:v>
+        <x:v>4378601</x:v>
       </x:c>
       <x:c r="K55">
-        <x:v>27400</x:v>
+        <x:v>24400</x:v>
       </x:c>
       <x:c r="L55" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="M55">
-        <x:v>11</x:v>
+        <x:v>10.295630140987001</x:v>
       </x:c>
       <x:c r="N55">
-        <x:v>5253500</x:v>
+        <x:v>4378601</x:v>
       </x:c>
       <x:c r="O55">
-        <x:v>22000</x:v>
+        <x:v>11100</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:15">
@@ -3411,43 +3411,43 @@
         <x:v>2560</x:v>
       </x:c>
       <x:c r="C56" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D56" t="s">
-        <x:v>2</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E56">
-        <x:v>7</x:v>
+        <x:v>3.3166247903553998</x:v>
       </x:c>
       <x:c r="F56">
-        <x:v>623298</x:v>
+        <x:v>590695</x:v>
       </x:c>
       <x:c r="G56">
-        <x:v>609000</x:v>
+        <x:v>647700</x:v>
       </x:c>
       <x:c r="H56" t="s">
-        <x:v>2</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I56">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="J56">
-        <x:v>9853400</x:v>
+        <x:v>3.3166247903553998</x:v>
+      </x:c>
+      <x:c r="J56" s="1">
+        <x:v>12677401</x:v>
       </x:c>
       <x:c r="K56">
-        <x:v>24301</x:v>
+        <x:v>24399</x:v>
       </x:c>
       <x:c r="L56" t="s">
-        <x:v>2</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M56">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="N56">
-        <x:v>9853400</x:v>
+        <x:v>3.3166247903553998</x:v>
+      </x:c>
+      <x:c r="N56" s="1">
+        <x:v>12677401</x:v>
       </x:c>
       <x:c r="O56">
-        <x:v>4653099</x:v>
+        <x:v>6401</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:15">
@@ -3458,43 +3458,43 @@
         <x:v>2560</x:v>
       </x:c>
       <x:c r="C57" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D57" t="s">
-        <x:v>2</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E57">
-        <x:v>7</x:v>
+        <x:v>3.3166247903553998</x:v>
       </x:c>
       <x:c r="F57">
-        <x:v>1113899</x:v>
+        <x:v>640400</x:v>
       </x:c>
       <x:c r="G57">
-        <x:v>532899</x:v>
+        <x:v>862000</x:v>
       </x:c>
       <x:c r="H57" t="s">
-        <x:v>2</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I57">
-        <x:v>7</x:v>
+        <x:v>3.3166247903553998</x:v>
       </x:c>
       <x:c r="J57" s="1">
-        <x:v>13130600</x:v>
+        <x:v>13259201</x:v>
       </x:c>
       <x:c r="K57">
-        <x:v>25501</x:v>
+        <x:v>26100</x:v>
       </x:c>
       <x:c r="L57" t="s">
-        <x:v>2</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M57">
-        <x:v>7</x:v>
+        <x:v>3.3166247903553998</x:v>
       </x:c>
       <x:c r="N57" s="1">
-        <x:v>13130600</x:v>
+        <x:v>13259201</x:v>
       </x:c>
       <x:c r="O57">
-        <x:v>3572800</x:v>
+        <x:v>6900</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:15">
@@ -3505,43 +3505,43 @@
         <x:v>2560</x:v>
       </x:c>
       <x:c r="C58" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D58" t="s">
-        <x:v>2</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E58">
-        <x:v>7</x:v>
+        <x:v>3.3166247903553998</x:v>
       </x:c>
       <x:c r="F58">
-        <x:v>624904</x:v>
+        <x:v>656609</x:v>
       </x:c>
       <x:c r="G58">
-        <x:v>663500</x:v>
+        <x:v>669800</x:v>
       </x:c>
       <x:c r="H58" t="s">
-        <x:v>2</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I58">
-        <x:v>7</x:v>
+        <x:v>3.3166247903553998</x:v>
       </x:c>
       <x:c r="J58" s="1">
-        <x:v>10542400</x:v>
+        <x:v>10529600</x:v>
       </x:c>
       <x:c r="K58">
-        <x:v>24300</x:v>
+        <x:v>25800</x:v>
       </x:c>
       <x:c r="L58" t="s">
-        <x:v>2</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M58">
-        <x:v>7</x:v>
+        <x:v>3.3166247903553998</x:v>
       </x:c>
       <x:c r="N58" s="1">
-        <x:v>10542400</x:v>
+        <x:v>10529600</x:v>
       </x:c>
       <x:c r="O58">
-        <x:v>4199000</x:v>
+        <x:v>6501</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:15">
@@ -3552,43 +3552,43 @@
         <x:v>2560</x:v>
       </x:c>
       <x:c r="C59" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D59" t="s">
-        <x:v>2</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E59">
-        <x:v>7</x:v>
+        <x:v>3.3166247903553998</x:v>
       </x:c>
       <x:c r="F59">
-        <x:v>653804</x:v>
+        <x:v>789796</x:v>
       </x:c>
       <x:c r="G59">
-        <x:v>645501</x:v>
+        <x:v>650501</x:v>
       </x:c>
       <x:c r="H59" t="s">
-        <x:v>2</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I59">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="J59" s="1">
-        <x:v>13947900</x:v>
+        <x:v>3.3166247903553998</x:v>
+      </x:c>
+      <x:c r="J59">
+        <x:v>8487200</x:v>
       </x:c>
       <x:c r="K59">
-        <x:v>24901</x:v>
+        <x:v>33800</x:v>
       </x:c>
       <x:c r="L59" t="s">
-        <x:v>2</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M59">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="N59" s="1">
-        <x:v>13947900</x:v>
+        <x:v>3.3166247903553998</x:v>
+      </x:c>
+      <x:c r="N59">
+        <x:v>8487200</x:v>
       </x:c>
       <x:c r="O59">
-        <x:v>3430400</x:v>
+        <x:v>5799</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:15">
@@ -3599,43 +3599,43 @@
         <x:v>2560</x:v>
       </x:c>
       <x:c r="C60" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D60" t="s">
-        <x:v>2</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E60">
-        <x:v>7</x:v>
+        <x:v>3.3166247903553998</x:v>
       </x:c>
       <x:c r="F60">
-        <x:v>667203</x:v>
+        <x:v>3560990</x:v>
       </x:c>
       <x:c r="G60">
-        <x:v>638900</x:v>
+        <x:v>664201</x:v>
       </x:c>
       <x:c r="H60" t="s">
-        <x:v>2</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I60">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="J60" s="1">
-        <x:v>16180300</x:v>
+        <x:v>3.3166247903553998</x:v>
+      </x:c>
+      <x:c r="J60">
+        <x:v>9651900</x:v>
       </x:c>
       <x:c r="K60">
-        <x:v>29100</x:v>
+        <x:v>25901</x:v>
       </x:c>
       <x:c r="L60" t="s">
-        <x:v>2</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M60">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="N60" s="1">
-        <x:v>16180300</x:v>
+        <x:v>3.3166247903553998</x:v>
+      </x:c>
+      <x:c r="N60">
+        <x:v>9651900</x:v>
       </x:c>
       <x:c r="O60">
-        <x:v>3491800</x:v>
+        <x:v>5900</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
